--- a/data/trans_orig/IP1002-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP1002-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB7FC5E1-8F51-4CD1-BAA7-CA08CDCD7C7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA1723C3-D097-4218-8A3C-6ABE2C319981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{4D97D28A-E0E2-422C-9C58-858E0F7036A1}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{5E895331-5E05-49E1-BF13-7DE007351886}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -134,6 +134,57 @@
     <t>100%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
@@ -152,9 +203,6 @@
     <t>97,83%</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
     <t>99,21%</t>
   </si>
   <si>
@@ -176,9 +224,6 @@
     <t>0,56%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
     <t>2,17%</t>
   </si>
   <si>
@@ -191,51 +236,6 @@
     <t>1,85%</t>
   </si>
   <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
     <t>98,82%</t>
   </si>
   <si>
@@ -347,6 +347,60 @@
     <t>4,92%</t>
   </si>
   <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
     <t>99,17%</t>
   </si>
   <si>
@@ -389,60 +443,6 @@
     <t>1,6%</t>
   </si>
   <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
     <t>97,61%</t>
   </si>
   <si>
@@ -542,6 +542,42 @@
     <t>4,19%</t>
   </si>
   <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
     <t>99,73%</t>
   </si>
   <si>
@@ -557,9 +593,6 @@
     <t>99,72%</t>
   </si>
   <si>
-    <t>99,02%</t>
-  </si>
-  <si>
     <t>0,27%</t>
   </si>
   <si>
@@ -575,39 +608,6 @@
     <t>0,28%</t>
   </si>
   <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
     <t>98,65%</t>
   </si>
   <si>
@@ -701,6 +701,60 @@
     <t>2,57%</t>
   </si>
   <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
     <t>97,2%</t>
   </si>
   <si>
@@ -735,60 +789,6 @@
   </si>
   <si>
     <t>1,78%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
   </si>
   <si>
     <t>98,66%</t>
@@ -1216,7 +1216,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{923648CB-8419-4E40-9DA8-A54D04F329A9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60BCE2FE-D67D-4C98-8715-EB740310CF08}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1489,49 +1489,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>418</v>
+        <v>328</v>
       </c>
       <c r="D7" s="7">
-        <v>278659</v>
+        <v>216615</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="H7" s="7">
+        <v>298</v>
+      </c>
+      <c r="I7" s="7">
+        <v>201602</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="H7" s="7">
-        <v>392</v>
-      </c>
-      <c r="I7" s="7">
-        <v>264114</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>626</v>
+      </c>
+      <c r="N7" s="7">
+        <v>418217</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="M7" s="7">
-        <v>810</v>
-      </c>
-      <c r="N7" s="7">
-        <v>542773</v>
-      </c>
-      <c r="O7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1540,49 +1540,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" s="7">
-        <v>2839</v>
+        <v>1426</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="H8" s="7">
+        <v>6</v>
+      </c>
+      <c r="I8" s="7">
+        <v>3620</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="7">
-        <v>2</v>
-      </c>
-      <c r="I8" s="7">
-        <v>1489</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>8</v>
+      </c>
+      <c r="N8" s="7">
+        <v>5046</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="M8" s="7">
-        <v>6</v>
-      </c>
-      <c r="N8" s="7">
-        <v>4328</v>
-      </c>
-      <c r="O8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1591,10 +1591,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>422</v>
+        <v>330</v>
       </c>
       <c r="D9" s="7">
-        <v>281498</v>
+        <v>218041</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1606,10 +1606,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>394</v>
+        <v>304</v>
       </c>
       <c r="I9" s="7">
-        <v>265603</v>
+        <v>205222</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1621,10 +1621,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>816</v>
+        <v>634</v>
       </c>
       <c r="N9" s="7">
-        <v>547101</v>
+        <v>423263</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1638,31 +1638,31 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>328</v>
+        <v>418</v>
       </c>
       <c r="D10" s="7">
-        <v>216615</v>
+        <v>278659</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="H10" s="7">
-        <v>298</v>
+        <v>392</v>
       </c>
       <c r="I10" s="7">
-        <v>201602</v>
+        <v>264114</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>52</v>
@@ -1671,22 +1671,22 @@
         <v>53</v>
       </c>
       <c r="L10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="M10" s="7">
+        <v>810</v>
+      </c>
+      <c r="N10" s="7">
+        <v>542773</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="M10" s="7">
-        <v>626</v>
-      </c>
-      <c r="N10" s="7">
-        <v>418217</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1695,40 +1695,40 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>4</v>
+      </c>
+      <c r="D11" s="7">
+        <v>2839</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" s="7">
         <v>2</v>
       </c>
-      <c r="D11" s="7">
-        <v>1426</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H11" s="7">
-        <v>6</v>
-      </c>
       <c r="I11" s="7">
-        <v>3620</v>
+        <v>1489</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>61</v>
       </c>
       <c r="M11" s="7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N11" s="7">
-        <v>5046</v>
+        <v>4328</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>62</v>
@@ -1746,10 +1746,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>330</v>
+        <v>422</v>
       </c>
       <c r="D12" s="7">
-        <v>218041</v>
+        <v>281498</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1761,10 +1761,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>304</v>
+        <v>394</v>
       </c>
       <c r="I12" s="7">
-        <v>205222</v>
+        <v>265603</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1776,10 +1776,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>634</v>
+        <v>816</v>
       </c>
       <c r="N12" s="7">
-        <v>423263</v>
+        <v>547101</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1962,7 +1962,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C686B68-8A2F-49C2-B92C-A6BE20B8F2FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26D2BBF3-DE3B-450D-B0CD-1A27DBB0CF2A}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2235,10 +2235,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>395</v>
+        <v>322</v>
       </c>
       <c r="D7" s="7">
-        <v>268118</v>
+        <v>232886</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>102</v>
@@ -2250,34 +2250,34 @@
         <v>104</v>
       </c>
       <c r="H7" s="7">
-        <v>360</v>
+        <v>316</v>
       </c>
       <c r="I7" s="7">
-        <v>252811</v>
+        <v>225894</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>105</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>37</v>
+        <v>107</v>
       </c>
       <c r="M7" s="7">
-        <v>755</v>
+        <v>638</v>
       </c>
       <c r="N7" s="7">
-        <v>520929</v>
+        <v>458780</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2286,49 +2286,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>10</v>
+      </c>
+      <c r="D8" s="7">
+        <v>7214</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H8" s="7">
         <v>3</v>
       </c>
-      <c r="D8" s="7">
-        <v>2236</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="H8" s="7">
-        <v>2</v>
-      </c>
       <c r="I8" s="7">
-        <v>1391</v>
+        <v>2284</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>45</v>
+        <v>115</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="M8" s="7">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="N8" s="7">
-        <v>3627</v>
+        <v>9498</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2337,10 +2337,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>398</v>
+        <v>332</v>
       </c>
       <c r="D9" s="7">
-        <v>270354</v>
+        <v>240100</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2352,10 +2352,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>362</v>
+        <v>319</v>
       </c>
       <c r="I9" s="7">
-        <v>254202</v>
+        <v>228178</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2367,10 +2367,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>760</v>
+        <v>651</v>
       </c>
       <c r="N9" s="7">
-        <v>524556</v>
+        <v>468278</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2384,55 +2384,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>322</v>
+        <v>395</v>
       </c>
       <c r="D10" s="7">
-        <v>232886</v>
+        <v>268118</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="H10" s="7">
-        <v>316</v>
+        <v>360</v>
       </c>
       <c r="I10" s="7">
-        <v>225894</v>
+        <v>252811</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>120</v>
+        <v>72</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>121</v>
+        <v>33</v>
       </c>
       <c r="M10" s="7">
-        <v>638</v>
+        <v>755</v>
       </c>
       <c r="N10" s="7">
-        <v>458780</v>
+        <v>520929</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2441,40 +2441,40 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D11" s="7">
-        <v>7214</v>
+        <v>2236</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H11" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I11" s="7">
-        <v>2284</v>
+        <v>1391</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>129</v>
+        <v>40</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>130</v>
+        <v>82</v>
       </c>
       <c r="M11" s="7">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="N11" s="7">
-        <v>9498</v>
+        <v>3627</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>131</v>
@@ -2492,10 +2492,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>332</v>
+        <v>398</v>
       </c>
       <c r="D12" s="7">
-        <v>240100</v>
+        <v>270354</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2507,10 +2507,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>319</v>
+        <v>362</v>
       </c>
       <c r="I12" s="7">
-        <v>228178</v>
+        <v>254202</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2522,10 +2522,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>651</v>
+        <v>760</v>
       </c>
       <c r="N12" s="7">
-        <v>468278</v>
+        <v>524556</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2708,7 +2708,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4AFD0F8-EBDE-47D1-954B-CA0C69836588}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B8CDEFF-67E9-4CC2-AEFB-BFB315EBAFED}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2981,49 +2981,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>380</v>
+        <v>361</v>
       </c>
       <c r="D7" s="7">
-        <v>280865</v>
+        <v>248689</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="7">
+        <v>355</v>
+      </c>
+      <c r="I7" s="7">
+        <v>231958</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H7" s="7">
-        <v>374</v>
-      </c>
-      <c r="I7" s="7">
-        <v>266998</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="M7" s="7">
-        <v>754</v>
+        <v>716</v>
       </c>
       <c r="N7" s="7">
-        <v>547863</v>
+        <v>480648</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>171</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3032,49 +3032,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" s="7">
-        <v>764</v>
+        <v>1363</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" s="7" t="s">
+      <c r="H8" s="7">
+        <v>5</v>
+      </c>
+      <c r="I8" s="7">
+        <v>3375</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="H8" s="7">
-        <v>1</v>
-      </c>
-      <c r="I8" s="7">
-        <v>772</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>176</v>
       </c>
       <c r="M8" s="7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="N8" s="7">
-        <v>1536</v>
+        <v>4737</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>177</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>45</v>
+        <v>178</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>178</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3083,10 +3083,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="D9" s="7">
-        <v>281629</v>
+        <v>250052</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3098,10 +3098,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="I9" s="7">
-        <v>267770</v>
+        <v>235333</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3113,10 +3113,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>756</v>
+        <v>723</v>
       </c>
       <c r="N9" s="7">
-        <v>549399</v>
+        <v>485385</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3130,55 +3130,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>361</v>
+        <v>380</v>
       </c>
       <c r="D10" s="7">
-        <v>248689</v>
+        <v>280865</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>105</v>
+        <v>179</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H10" s="7">
-        <v>355</v>
+        <v>374</v>
       </c>
       <c r="I10" s="7">
-        <v>231958</v>
+        <v>266998</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>182</v>
+        <v>33</v>
       </c>
       <c r="M10" s="7">
-        <v>716</v>
+        <v>754</v>
       </c>
       <c r="N10" s="7">
-        <v>480648</v>
+        <v>547863</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>11</v>
+        <v>171</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>183</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3187,49 +3187,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>1363</v>
+        <v>764</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>112</v>
+        <v>184</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H11" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I11" s="7">
-        <v>3375</v>
+        <v>772</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>186</v>
+        <v>40</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>187</v>
       </c>
       <c r="M11" s="7">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="N11" s="7">
-        <v>4737</v>
+        <v>1536</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>188</v>
+        <v>40</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>21</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3238,10 +3238,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="D12" s="7">
-        <v>250052</v>
+        <v>281629</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3253,10 +3253,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="I12" s="7">
-        <v>235333</v>
+        <v>267770</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3268,10 +3268,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>723</v>
+        <v>756</v>
       </c>
       <c r="N12" s="7">
-        <v>485385</v>
+        <v>549399</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3454,7 +3454,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11ADC298-5935-4279-ABDE-F8C8576745A4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE8EEFD9-F905-431D-BEB3-810D5EBB8BB1}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3599,7 +3599,7 @@
         <v>208</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="M4" s="7">
         <v>421</v>
@@ -3647,7 +3647,7 @@
         <v>215</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>216</v>
@@ -3727,49 +3727,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>473</v>
+        <v>267</v>
       </c>
       <c r="D7" s="7">
-        <v>397061</v>
+        <v>201463</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>65</v>
+        <v>220</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H7" s="7">
-        <v>460</v>
+        <v>272</v>
       </c>
       <c r="I7" s="7">
-        <v>349520</v>
+        <v>192075</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>89</v>
+        <v>224</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>37</v>
+        <v>225</v>
       </c>
       <c r="M7" s="7">
-        <v>933</v>
+        <v>539</v>
       </c>
       <c r="N7" s="7">
-        <v>746580</v>
+        <v>393539</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3778,49 +3778,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" s="7">
-        <v>4748</v>
+        <v>3592</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>74</v>
+        <v>229</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="H8" s="7">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I8" s="7">
-        <v>1288</v>
+        <v>6192</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>45</v>
+        <v>233</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>97</v>
+        <v>234</v>
       </c>
       <c r="M8" s="7">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="N8" s="7">
-        <v>6037</v>
+        <v>9784</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3829,10 +3829,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>478</v>
+        <v>271</v>
       </c>
       <c r="D9" s="7">
-        <v>401809</v>
+        <v>205055</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3844,10 +3844,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>462</v>
+        <v>281</v>
       </c>
       <c r="I9" s="7">
-        <v>350808</v>
+        <v>198267</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3859,10 +3859,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>940</v>
+        <v>552</v>
       </c>
       <c r="N9" s="7">
-        <v>752617</v>
+        <v>403323</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3876,55 +3876,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>267</v>
+        <v>473</v>
       </c>
       <c r="D10" s="7">
-        <v>201463</v>
+        <v>397061</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>232</v>
+        <v>65</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="H10" s="7">
-        <v>272</v>
+        <v>460</v>
       </c>
       <c r="I10" s="7">
-        <v>192075</v>
+        <v>349520</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>236</v>
+        <v>89</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>237</v>
+        <v>33</v>
       </c>
       <c r="M10" s="7">
-        <v>539</v>
+        <v>933</v>
       </c>
       <c r="N10" s="7">
-        <v>393539</v>
+        <v>746580</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3933,40 +3933,40 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" s="7">
-        <v>3592</v>
+        <v>4748</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>241</v>
+        <v>74</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="H11" s="7">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I11" s="7">
-        <v>6192</v>
+        <v>1288</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>245</v>
+        <v>40</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>246</v>
+        <v>97</v>
       </c>
       <c r="M11" s="7">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="N11" s="7">
-        <v>9784</v>
+        <v>6037</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>247</v>
@@ -3984,10 +3984,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>271</v>
+        <v>478</v>
       </c>
       <c r="D12" s="7">
-        <v>205055</v>
+        <v>401809</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3999,10 +3999,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>281</v>
+        <v>462</v>
       </c>
       <c r="I12" s="7">
-        <v>198267</v>
+        <v>350808</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4014,10 +4014,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>552</v>
+        <v>940</v>
       </c>
       <c r="N12" s="7">
-        <v>403323</v>
+        <v>752617</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/IP1002-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP1002-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA1723C3-D097-4218-8A3C-6ABE2C319981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C81E8509-0789-41AC-B561-9FCF8C8240C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{5E895331-5E05-49E1-BF13-7DE007351886}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0BCA0AF4-DFBC-4D9F-B2CA-13A969C24C83}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="295">
   <si>
     <t>Menores según si padecen bronquitis crónica en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,763 +68,862 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
     <t>98,09%</t>
   </si>
   <si>
-    <t>95,87%</t>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
   </si>
   <si>
     <t>99,35%</t>
   </si>
   <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si padecen bronquitis crónica en 2012 (Tasa respuesta: 99,29%)</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
   </si>
   <si>
     <t>99,08%</t>
   </si>
   <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen bronquitis crónica en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
   </si>
   <si>
     <t>98,9%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen bronquitis crónica en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
   </si>
   <si>
     <t>99,44%</t>
   </si>
   <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen bronquitis crónica en 2012 (Tasa respuesta: 99,29%)</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
   </si>
   <si>
     <t>97,5%</t>
   </si>
   <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen bronquitis crónica en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen bronquitis crónica en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
   </si>
 </sst>
 </file>
@@ -835,7 +934,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -931,39 +1030,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1015,7 +1114,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1126,13 +1225,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1141,6 +1233,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1205,19 +1304,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60BCE2FE-D67D-4C98-8715-EB740310CF08}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7E403BB-9C8D-4E32-A927-34F73FC8CE72}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1334,10 +1453,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>328</v>
+        <v>4</v>
       </c>
       <c r="D4" s="7">
-        <v>218906</v>
+        <v>2679</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1349,10 +1468,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>313</v>
+        <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>205721</v>
+        <v>1668</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1364,10 +1483,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>641</v>
+        <v>7</v>
       </c>
       <c r="N4" s="7">
-        <v>424627</v>
+        <v>4347</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1385,10 +1504,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>6</v>
+        <v>178</v>
       </c>
       <c r="D5" s="7">
-        <v>4255</v>
+        <v>118701</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1400,10 +1519,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>7</v>
+        <v>159</v>
       </c>
       <c r="I5" s="7">
-        <v>4475</v>
+        <v>104503</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1415,10 +1534,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>13</v>
+        <v>337</v>
       </c>
       <c r="N5" s="7">
-        <v>8730</v>
+        <v>223204</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1436,10 +1555,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>334</v>
+        <v>182</v>
       </c>
       <c r="D6" s="7">
-        <v>223161</v>
+        <v>121380</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1451,10 +1570,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>320</v>
+        <v>162</v>
       </c>
       <c r="I6" s="7">
-        <v>210196</v>
+        <v>106171</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1466,10 +1585,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>654</v>
+        <v>344</v>
       </c>
       <c r="N6" s="7">
-        <v>433357</v>
+        <v>227551</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1489,49 +1608,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>328</v>
+        <v>4</v>
       </c>
       <c r="D7" s="7">
-        <v>216615</v>
+        <v>3002</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>298</v>
+        <v>6</v>
       </c>
       <c r="I7" s="7">
-        <v>201602</v>
+        <v>4008</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>626</v>
+        <v>10</v>
       </c>
       <c r="N7" s="7">
-        <v>418217</v>
+        <v>7010</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1540,49 +1659,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>2</v>
+        <v>378</v>
       </c>
       <c r="D8" s="7">
-        <v>1426</v>
+        <v>250754</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>6</v>
+        <v>373</v>
       </c>
       <c r="I8" s="7">
-        <v>3620</v>
+        <v>249197</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>8</v>
+        <v>751</v>
       </c>
       <c r="N8" s="7">
-        <v>5046</v>
+        <v>499951</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1591,10 +1710,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>330</v>
+        <v>382</v>
       </c>
       <c r="D9" s="7">
-        <v>218041</v>
+        <v>253756</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1606,10 +1725,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>304</v>
+        <v>379</v>
       </c>
       <c r="I9" s="7">
-        <v>205222</v>
+        <v>253205</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1621,10 +1740,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>634</v>
+        <v>761</v>
       </c>
       <c r="N9" s="7">
-        <v>423263</v>
+        <v>506961</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1638,55 +1757,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>418</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>278659</v>
+        <v>813</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H10" s="7">
-        <v>392</v>
+        <v>5</v>
       </c>
       <c r="I10" s="7">
-        <v>264114</v>
+        <v>3292</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="M10" s="7">
-        <v>810</v>
+        <v>6</v>
       </c>
       <c r="N10" s="7">
-        <v>542773</v>
+        <v>4105</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1695,49 +1814,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>4</v>
+        <v>211</v>
       </c>
       <c r="D11" s="7">
-        <v>2839</v>
+        <v>140702</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H11" s="7">
-        <v>2</v>
+        <v>186</v>
       </c>
       <c r="I11" s="7">
-        <v>1489</v>
+        <v>124256</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M11" s="7">
-        <v>6</v>
+        <v>397</v>
       </c>
       <c r="N11" s="7">
-        <v>4328</v>
+        <v>264958</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1746,10 +1865,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>422</v>
+        <v>212</v>
       </c>
       <c r="D12" s="7">
-        <v>281498</v>
+        <v>141515</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1761,10 +1880,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>394</v>
+        <v>191</v>
       </c>
       <c r="I12" s="7">
-        <v>265603</v>
+        <v>127548</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1776,10 +1895,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>816</v>
+        <v>403</v>
       </c>
       <c r="N12" s="7">
-        <v>547101</v>
+        <v>269063</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1793,55 +1912,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1074</v>
+        <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>714179</v>
+        <v>2026</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H13" s="7">
-        <v>1003</v>
+        <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>671437</v>
+        <v>616</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="M13" s="7">
-        <v>2077</v>
+        <v>4</v>
       </c>
       <c r="N13" s="7">
-        <v>1385616</v>
+        <v>2643</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1850,49 +1969,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>12</v>
+        <v>307</v>
       </c>
       <c r="D14" s="7">
-        <v>8521</v>
+        <v>204023</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>285</v>
+      </c>
+      <c r="I14" s="7">
+        <v>193481</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M14" s="7">
+        <v>592</v>
+      </c>
+      <c r="N14" s="7">
+        <v>397503</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="H14" s="7">
-        <v>15</v>
-      </c>
-      <c r="I14" s="7">
-        <v>9584</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="M14" s="7">
-        <v>27</v>
-      </c>
-      <c r="N14" s="7">
-        <v>18105</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1901,55 +2020,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>310</v>
+      </c>
+      <c r="D15" s="7">
+        <v>206049</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>286</v>
+      </c>
+      <c r="I15" s="7">
+        <v>194097</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>596</v>
+      </c>
+      <c r="N15" s="7">
+        <v>400146</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>12</v>
+      </c>
+      <c r="D16" s="7">
+        <v>8521</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H16" s="7">
+        <v>15</v>
+      </c>
+      <c r="I16" s="7">
+        <v>9584</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="M16" s="7">
+        <v>27</v>
+      </c>
+      <c r="N16" s="7">
+        <v>18105</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1074</v>
+      </c>
+      <c r="D17" s="7">
+        <v>714179</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1003</v>
+      </c>
+      <c r="I17" s="7">
+        <v>671437</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="M17" s="7">
+        <v>2077</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1385616</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>1086</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>722700</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>1018</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>681021</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
         <v>2104</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1403721</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -1962,8 +2242,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26D2BBF3-DE3B-450D-B0CD-1A27DBB0CF2A}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48BBC995-6E59-444F-BFDC-0299974B605C}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1979,7 +2259,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2080,49 +2360,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>324</v>
+        <v>6</v>
       </c>
       <c r="D4" s="7">
-        <v>229251</v>
+        <v>4130</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="H4" s="7">
-        <v>326</v>
+        <v>8</v>
       </c>
       <c r="I4" s="7">
-        <v>217447</v>
+        <v>4929</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="M4" s="7">
-        <v>650</v>
+        <v>14</v>
       </c>
       <c r="N4" s="7">
-        <v>446697</v>
+        <v>9059</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2131,49 +2411,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>12</v>
+        <v>199</v>
       </c>
       <c r="D5" s="7">
-        <v>8437</v>
+        <v>140383</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="H5" s="7">
-        <v>11</v>
+        <v>210</v>
       </c>
       <c r="I5" s="7">
-        <v>7101</v>
+        <v>141352</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="M5" s="7">
-        <v>23</v>
+        <v>409</v>
       </c>
       <c r="N5" s="7">
-        <v>15539</v>
+        <v>281735</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2182,10 +2462,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>336</v>
+        <v>205</v>
       </c>
       <c r="D6" s="7">
-        <v>237688</v>
+        <v>144513</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2197,10 +2477,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>337</v>
+        <v>218</v>
       </c>
       <c r="I6" s="7">
-        <v>224548</v>
+        <v>146281</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2212,10 +2492,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>673</v>
+        <v>423</v>
       </c>
       <c r="N6" s="7">
-        <v>462236</v>
+        <v>290794</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2235,49 +2515,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>322</v>
+        <v>13</v>
       </c>
       <c r="D7" s="7">
-        <v>232886</v>
+        <v>9496</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="H7" s="7">
-        <v>316</v>
+        <v>5</v>
       </c>
       <c r="I7" s="7">
-        <v>225894</v>
+        <v>3745</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="M7" s="7">
-        <v>638</v>
+        <v>18</v>
       </c>
       <c r="N7" s="7">
-        <v>458780</v>
+        <v>13241</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2286,49 +2566,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>10</v>
+        <v>358</v>
       </c>
       <c r="D8" s="7">
-        <v>7214</v>
+        <v>257605</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="H8" s="7">
-        <v>3</v>
+        <v>332</v>
       </c>
       <c r="I8" s="7">
-        <v>2284</v>
+        <v>230731</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="M8" s="7">
-        <v>13</v>
+        <v>690</v>
       </c>
       <c r="N8" s="7">
-        <v>9498</v>
+        <v>488335</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2337,10 +2617,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>332</v>
+        <v>371</v>
       </c>
       <c r="D9" s="7">
-        <v>240100</v>
+        <v>267101</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2352,10 +2632,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>319</v>
+        <v>337</v>
       </c>
       <c r="I9" s="7">
-        <v>228178</v>
+        <v>234476</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2367,10 +2647,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>651</v>
+        <v>708</v>
       </c>
       <c r="N9" s="7">
-        <v>468278</v>
+        <v>501576</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2384,55 +2664,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>395</v>
+        <v>5</v>
       </c>
       <c r="D10" s="7">
-        <v>268118</v>
+        <v>3310</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="H10" s="7">
-        <v>360</v>
+        <v>2</v>
       </c>
       <c r="I10" s="7">
-        <v>252811</v>
+        <v>1438</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>33</v>
+        <v>136</v>
       </c>
       <c r="M10" s="7">
-        <v>755</v>
+        <v>7</v>
       </c>
       <c r="N10" s="7">
-        <v>520929</v>
+        <v>4748</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>125</v>
+        <v>78</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2441,49 +2721,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>3</v>
+        <v>223</v>
       </c>
       <c r="D11" s="7">
-        <v>2236</v>
+        <v>155261</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="H11" s="7">
-        <v>2</v>
+        <v>218</v>
       </c>
       <c r="I11" s="7">
-        <v>1391</v>
+        <v>153396</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>40</v>
+        <v>143</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="M11" s="7">
-        <v>5</v>
+        <v>441</v>
       </c>
       <c r="N11" s="7">
-        <v>3627</v>
+        <v>308657</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>133</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2492,10 +2772,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>398</v>
+        <v>228</v>
       </c>
       <c r="D12" s="7">
-        <v>270354</v>
+        <v>158571</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2507,10 +2787,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>362</v>
+        <v>220</v>
       </c>
       <c r="I12" s="7">
-        <v>254202</v>
+        <v>154834</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2522,10 +2802,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>760</v>
+        <v>448</v>
       </c>
       <c r="N12" s="7">
-        <v>524556</v>
+        <v>313405</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2539,55 +2819,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1041</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>730255</v>
+        <v>951</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>135</v>
+        <v>51</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="H13" s="7">
-        <v>1002</v>
+        <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>696151</v>
+        <v>665</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>137</v>
+        <v>51</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M13" s="7">
-        <v>2043</v>
+        <v>2</v>
       </c>
       <c r="N13" s="7">
-        <v>1426406</v>
+        <v>1617</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>140</v>
+        <v>51</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>141</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2596,49 +2876,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>25</v>
+        <v>261</v>
       </c>
       <c r="D14" s="7">
-        <v>17887</v>
+        <v>177006</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>144</v>
+        <v>60</v>
       </c>
       <c r="H14" s="7">
-        <v>16</v>
+        <v>242</v>
       </c>
       <c r="I14" s="7">
-        <v>10777</v>
+        <v>170672</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>146</v>
+        <v>60</v>
       </c>
       <c r="M14" s="7">
-        <v>41</v>
+        <v>503</v>
       </c>
       <c r="N14" s="7">
-        <v>28664</v>
+        <v>347677</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>148</v>
+        <v>64</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>149</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2647,55 +2927,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>262</v>
+      </c>
+      <c r="D15" s="7">
+        <v>177957</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>243</v>
+      </c>
+      <c r="I15" s="7">
+        <v>171337</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>505</v>
+      </c>
+      <c r="N15" s="7">
+        <v>349294</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>25</v>
+      </c>
+      <c r="D16" s="7">
+        <v>17887</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="H16" s="7">
+        <v>16</v>
+      </c>
+      <c r="I16" s="7">
+        <v>10777</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="M16" s="7">
+        <v>41</v>
+      </c>
+      <c r="N16" s="7">
+        <v>28664</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1041</v>
+      </c>
+      <c r="D17" s="7">
+        <v>730255</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1002</v>
+      </c>
+      <c r="I17" s="7">
+        <v>696151</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="M17" s="7">
+        <v>2043</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1426406</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>1066</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>748142</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>1018</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>706928</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
         <v>2084</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1455070</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2708,8 +3149,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B8CDEFF-67E9-4CC2-AEFB-BFB315EBAFED}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A53CAA4A-8448-4B04-B9D4-5D71E8595EE3}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2725,7 +3166,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2826,49 +3267,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>309</v>
+        <v>8</v>
       </c>
       <c r="D4" s="7">
-        <v>205213</v>
+        <v>5330</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>175</v>
       </c>
       <c r="H4" s="7">
-        <v>320</v>
+        <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>197700</v>
+        <v>1577</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>153</v>
+        <v>176</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="M4" s="7">
-        <v>629</v>
+        <v>11</v>
       </c>
       <c r="N4" s="7">
-        <v>402913</v>
+        <v>6907</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>157</v>
+        <v>179</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>158</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2877,49 +3318,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>12</v>
+        <v>179</v>
       </c>
       <c r="D5" s="7">
-        <v>7950</v>
+        <v>118834</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>24</v>
+        <v>182</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>160</v>
+        <v>183</v>
       </c>
       <c r="H5" s="7">
-        <v>6</v>
+        <v>208</v>
       </c>
       <c r="I5" s="7">
-        <v>3568</v>
+        <v>130077</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>161</v>
+        <v>184</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>162</v>
+        <v>185</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>163</v>
+        <v>186</v>
       </c>
       <c r="M5" s="7">
-        <v>18</v>
+        <v>387</v>
       </c>
       <c r="N5" s="7">
-        <v>11518</v>
+        <v>248911</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>166</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2928,10 +3369,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>321</v>
+        <v>187</v>
       </c>
       <c r="D6" s="7">
-        <v>213163</v>
+        <v>124164</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2943,10 +3384,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>326</v>
+        <v>211</v>
       </c>
       <c r="I6" s="7">
-        <v>201268</v>
+        <v>131654</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2958,10 +3399,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>647</v>
+        <v>398</v>
       </c>
       <c r="N6" s="7">
-        <v>414431</v>
+        <v>255818</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2981,49 +3422,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>361</v>
+        <v>4</v>
       </c>
       <c r="D7" s="7">
-        <v>248689</v>
+        <v>2620</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>123</v>
+        <v>189</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>167</v>
+        <v>190</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>33</v>
+        <v>191</v>
       </c>
       <c r="H7" s="7">
-        <v>355</v>
+        <v>8</v>
       </c>
       <c r="I7" s="7">
-        <v>231958</v>
+        <v>5366</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>169</v>
+        <v>193</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="M7" s="7">
-        <v>716</v>
+        <v>12</v>
       </c>
       <c r="N7" s="7">
-        <v>480648</v>
+        <v>7986</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>171</v>
+        <v>195</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>196</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3032,49 +3473,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>2</v>
+        <v>376</v>
       </c>
       <c r="D8" s="7">
-        <v>1363</v>
+        <v>255441</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>130</v>
+        <v>198</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>40</v>
+        <v>199</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>173</v>
+        <v>200</v>
       </c>
       <c r="H8" s="7">
-        <v>5</v>
+        <v>324</v>
       </c>
       <c r="I8" s="7">
-        <v>3375</v>
+        <v>205151</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>174</v>
+        <v>201</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>175</v>
+        <v>202</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>176</v>
+        <v>203</v>
       </c>
       <c r="M8" s="7">
-        <v>7</v>
+        <v>700</v>
       </c>
       <c r="N8" s="7">
-        <v>4737</v>
+        <v>460592</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>177</v>
+        <v>204</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>178</v>
+        <v>205</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>21</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3083,10 +3524,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>363</v>
+        <v>380</v>
       </c>
       <c r="D9" s="7">
-        <v>250052</v>
+        <v>258061</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3098,10 +3539,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>360</v>
+        <v>332</v>
       </c>
       <c r="I9" s="7">
-        <v>235333</v>
+        <v>210517</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3113,10 +3554,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>723</v>
+        <v>712</v>
       </c>
       <c r="N9" s="7">
-        <v>485385</v>
+        <v>468578</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3130,55 +3571,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>380</v>
+        <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>280865</v>
+        <v>1363</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>179</v>
+        <v>207</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>180</v>
+        <v>51</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>33</v>
+        <v>208</v>
       </c>
       <c r="H10" s="7">
-        <v>374</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>266998</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>181</v>
+        <v>51</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>182</v>
+        <v>209</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>33</v>
+        <v>210</v>
       </c>
       <c r="M10" s="7">
-        <v>754</v>
+        <v>2</v>
       </c>
       <c r="N10" s="7">
-        <v>547863</v>
+        <v>1363</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>183</v>
+        <v>211</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>171</v>
+        <v>51</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>33</v>
+        <v>212</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3187,49 +3628,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
+        <v>261</v>
       </c>
       <c r="D11" s="7">
-        <v>764</v>
+        <v>187209</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>184</v>
+        <v>213</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>40</v>
+        <v>214</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>185</v>
+        <v>60</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
+        <v>272</v>
       </c>
       <c r="I11" s="7">
-        <v>772</v>
+        <v>188899</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>186</v>
+        <v>60</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>40</v>
+        <v>215</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>187</v>
+        <v>30</v>
       </c>
       <c r="M11" s="7">
-        <v>2</v>
+        <v>533</v>
       </c>
       <c r="N11" s="7">
-        <v>1536</v>
+        <v>376108</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>188</v>
+        <v>216</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>40</v>
+        <v>217</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>177</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3238,10 +3679,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>381</v>
+        <v>263</v>
       </c>
       <c r="D12" s="7">
-        <v>281629</v>
+        <v>188572</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3253,10 +3694,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>375</v>
+        <v>272</v>
       </c>
       <c r="I12" s="7">
-        <v>267770</v>
+        <v>188899</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3268,10 +3709,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>756</v>
+        <v>535</v>
       </c>
       <c r="N12" s="7">
-        <v>549399</v>
+        <v>377471</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3285,55 +3726,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1050</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>734767</v>
+        <v>764</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>189</v>
+        <v>218</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>190</v>
+        <v>51</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>191</v>
+        <v>219</v>
       </c>
       <c r="H13" s="7">
-        <v>1049</v>
+        <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>696657</v>
+        <v>772</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>19</v>
+        <v>220</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>192</v>
+        <v>51</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>193</v>
+        <v>156</v>
       </c>
       <c r="M13" s="7">
-        <v>2099</v>
+        <v>2</v>
       </c>
       <c r="N13" s="7">
-        <v>1431424</v>
+        <v>1536</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>153</v>
+        <v>51</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>195</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3342,49 +3783,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>15</v>
+        <v>234</v>
       </c>
       <c r="D14" s="7">
-        <v>10077</v>
+        <v>173284</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>196</v>
+        <v>222</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>197</v>
+        <v>223</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>198</v>
+        <v>60</v>
       </c>
       <c r="H14" s="7">
-        <v>12</v>
+        <v>245</v>
       </c>
       <c r="I14" s="7">
-        <v>7714</v>
+        <v>172529</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>28</v>
+        <v>224</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>199</v>
+        <v>164</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="M14" s="7">
-        <v>27</v>
+        <v>479</v>
       </c>
       <c r="N14" s="7">
-        <v>17791</v>
+        <v>345812</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>202</v>
+        <v>225</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>161</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3393,55 +3834,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>235</v>
+      </c>
+      <c r="D15" s="7">
+        <v>174048</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>246</v>
+      </c>
+      <c r="I15" s="7">
+        <v>173301</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>481</v>
+      </c>
+      <c r="N15" s="7">
+        <v>347348</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>15</v>
+      </c>
+      <c r="D16" s="7">
+        <v>10077</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="H16" s="7">
+        <v>12</v>
+      </c>
+      <c r="I16" s="7">
+        <v>7714</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="M16" s="7">
+        <v>27</v>
+      </c>
+      <c r="N16" s="7">
+        <v>17791</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1050</v>
+      </c>
+      <c r="D17" s="7">
+        <v>734767</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1049</v>
+      </c>
+      <c r="I17" s="7">
+        <v>696657</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="M17" s="7">
+        <v>2099</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1431424</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>1065</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>744844</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>1061</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>704371</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
         <v>2126</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1449215</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3454,8 +4056,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE8EEFD9-F905-431D-BEB3-810D5EBB8BB1}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F28AC338-DA6A-409F-96C8-F1DAB683F715}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3471,7 +4073,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>203</v>
+        <v>240</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3572,49 +4174,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>224</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>116581</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>204</v>
+        <v>51</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>206</v>
+        <v>72</v>
       </c>
       <c r="H4" s="7">
-        <v>197</v>
+        <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>102450</v>
+        <v>1353</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>207</v>
+        <v>241</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>208</v>
+        <v>51</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>33</v>
+        <v>242</v>
       </c>
       <c r="M4" s="7">
-        <v>421</v>
+        <v>2</v>
       </c>
       <c r="N4" s="7">
-        <v>219030</v>
+        <v>1353</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>209</v>
+        <v>243</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>210</v>
+        <v>51</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>211</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3623,49 +4225,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>3</v>
+        <v>116</v>
       </c>
       <c r="D5" s="7">
-        <v>1357</v>
+        <v>58503</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>212</v>
+        <v>60</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>213</v>
+        <v>76</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>214</v>
+        <v>30</v>
       </c>
       <c r="H5" s="7">
-        <v>2</v>
+        <v>107</v>
       </c>
       <c r="I5" s="7">
-        <v>1353</v>
+        <v>56016</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>215</v>
+        <v>245</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>40</v>
+        <v>246</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>216</v>
+        <v>60</v>
       </c>
       <c r="M5" s="7">
-        <v>5</v>
+        <v>223</v>
       </c>
       <c r="N5" s="7">
-        <v>2711</v>
+        <v>114518</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>217</v>
+        <v>247</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>218</v>
+        <v>248</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>219</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3674,10 +4276,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>227</v>
+        <v>116</v>
       </c>
       <c r="D6" s="7">
-        <v>117938</v>
+        <v>58503</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3689,10 +4291,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>199</v>
+        <v>109</v>
       </c>
       <c r="I6" s="7">
-        <v>103803</v>
+        <v>57369</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3704,10 +4306,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>426</v>
+        <v>225</v>
       </c>
       <c r="N6" s="7">
-        <v>221741</v>
+        <v>115871</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3727,49 +4329,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>267</v>
+        <v>6</v>
       </c>
       <c r="D7" s="7">
-        <v>201463</v>
+        <v>4276</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>221</v>
+        <v>250</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="H7" s="7">
-        <v>272</v>
+        <v>7</v>
       </c>
       <c r="I7" s="7">
-        <v>192075</v>
+        <v>4575</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>223</v>
+        <v>252</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>224</v>
+        <v>253</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="M7" s="7">
-        <v>539</v>
+        <v>13</v>
       </c>
       <c r="N7" s="7">
-        <v>393539</v>
+        <v>8851</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>226</v>
+        <v>255</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>227</v>
+        <v>256</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>228</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3778,49 +4380,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>4</v>
+        <v>270</v>
       </c>
       <c r="D8" s="7">
-        <v>3592</v>
+        <v>171023</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>229</v>
+        <v>258</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>230</v>
+        <v>259</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>231</v>
+        <v>260</v>
       </c>
       <c r="H8" s="7">
-        <v>9</v>
+        <v>251</v>
       </c>
       <c r="I8" s="7">
-        <v>6192</v>
+        <v>154190</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>232</v>
+        <v>261</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>234</v>
+        <v>263</v>
       </c>
       <c r="M8" s="7">
-        <v>13</v>
+        <v>521</v>
       </c>
       <c r="N8" s="7">
-        <v>9784</v>
+        <v>325212</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>235</v>
+        <v>264</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>237</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3829,10 +4431,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="D9" s="7">
-        <v>205055</v>
+        <v>175299</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3844,10 +4446,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>281</v>
+        <v>258</v>
       </c>
       <c r="I9" s="7">
-        <v>198267</v>
+        <v>158765</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3859,10 +4461,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>552</v>
+        <v>534</v>
       </c>
       <c r="N9" s="7">
-        <v>403323</v>
+        <v>334063</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3876,55 +4478,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>473</v>
+        <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>397061</v>
+        <v>1498</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>65</v>
+        <v>267</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>238</v>
+        <v>51</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="H10" s="7">
-        <v>460</v>
+        <v>4</v>
       </c>
       <c r="I10" s="7">
-        <v>349520</v>
+        <v>2905</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>240</v>
+        <v>268</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>89</v>
+        <v>150</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>33</v>
+        <v>269</v>
       </c>
       <c r="M10" s="7">
-        <v>933</v>
+        <v>6</v>
       </c>
       <c r="N10" s="7">
-        <v>746580</v>
+        <v>4403</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>242</v>
+        <v>150</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>243</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3933,49 +4535,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>5</v>
+        <v>240</v>
       </c>
       <c r="D11" s="7">
-        <v>4748</v>
+        <v>200079</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>74</v>
+        <v>270</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>245</v>
+        <v>60</v>
       </c>
       <c r="H11" s="7">
-        <v>2</v>
+        <v>229</v>
       </c>
       <c r="I11" s="7">
-        <v>1288</v>
+        <v>173208</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>40</v>
+        <v>272</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>97</v>
+        <v>155</v>
       </c>
       <c r="M11" s="7">
-        <v>7</v>
+        <v>469</v>
       </c>
       <c r="N11" s="7">
-        <v>6037</v>
+        <v>373287</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>247</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>248</v>
+        <v>129</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>249</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3984,10 +4586,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>478</v>
+        <v>242</v>
       </c>
       <c r="D12" s="7">
-        <v>401809</v>
+        <v>201577</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3999,10 +4601,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>462</v>
+        <v>233</v>
       </c>
       <c r="I12" s="7">
-        <v>350808</v>
+        <v>176113</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4014,10 +4616,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>940</v>
+        <v>475</v>
       </c>
       <c r="N12" s="7">
-        <v>752617</v>
+        <v>377690</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4031,55 +4633,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>964</v>
+        <v>4</v>
       </c>
       <c r="D13" s="7">
-        <v>715104</v>
+        <v>3924</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>250</v>
+        <v>273</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>251</v>
+        <v>146</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>252</v>
+        <v>274</v>
       </c>
       <c r="H13" s="7">
-        <v>929</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>644046</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>189</v>
+        <v>51</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>253</v>
+        <v>209</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>254</v>
+        <v>275</v>
       </c>
       <c r="M13" s="7">
-        <v>1893</v>
+        <v>4</v>
       </c>
       <c r="N13" s="7">
-        <v>1359149</v>
+        <v>3924</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>189</v>
+        <v>276</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>255</v>
+        <v>277</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>73</v>
+        <v>278</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4088,49 +4690,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>12</v>
+        <v>338</v>
       </c>
       <c r="D14" s="7">
-        <v>9698</v>
+        <v>285500</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>256</v>
+        <v>279</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>257</v>
+        <v>280</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>258</v>
+        <v>151</v>
       </c>
       <c r="H14" s="7">
-        <v>13</v>
+        <v>342</v>
       </c>
       <c r="I14" s="7">
-        <v>8833</v>
+        <v>260633</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>196</v>
+        <v>60</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>259</v>
+        <v>281</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>260</v>
+        <v>30</v>
       </c>
       <c r="M14" s="7">
-        <v>25</v>
+        <v>680</v>
       </c>
       <c r="N14" s="7">
-        <v>18532</v>
+        <v>546133</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>196</v>
+        <v>282</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>81</v>
+        <v>283</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>261</v>
+        <v>284</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4139,55 +4741,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>342</v>
+      </c>
+      <c r="D15" s="7">
+        <v>289424</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>342</v>
+      </c>
+      <c r="I15" s="7">
+        <v>260633</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>684</v>
+      </c>
+      <c r="N15" s="7">
+        <v>550057</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>12</v>
+      </c>
+      <c r="D16" s="7">
+        <v>9698</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="H16" s="7">
+        <v>13</v>
+      </c>
+      <c r="I16" s="7">
+        <v>8833</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="M16" s="7">
+        <v>25</v>
+      </c>
+      <c r="N16" s="7">
+        <v>18532</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>964</v>
+      </c>
+      <c r="D17" s="7">
+        <v>715104</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="H17" s="7">
+        <v>929</v>
+      </c>
+      <c r="I17" s="7">
+        <v>644046</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1893</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1359149</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>976</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>724802</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>942</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>652879</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
         <v>1918</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1377681</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP1002-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP1002-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C81E8509-0789-41AC-B561-9FCF8C8240C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{718B9184-97B4-4BFD-851A-D5B7BB5B8C3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0BCA0AF4-DFBC-4D9F-B2CA-13A969C24C83}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3C2B8D8B-A9AF-459C-8B3D-594124EA13C5}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="287">
   <si>
     <t>Menores según si padecen bronquitis crónica en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,853 +77,829 @@
     <t>2,21%</t>
   </si>
   <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
     <t>0,57%</t>
   </si>
   <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
   </si>
   <si>
     <t>99,43%</t>
   </si>
   <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>1,18%</t>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si padecen bronquitis crónica en 2012 (Tasa respuesta: 99,29%)</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen bronquitis crónica en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen bronquitis crónica en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
   </si>
   <si>
     <t>0,29%</t>
   </si>
   <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
   </si>
   <si>
     <t>99,71%</t>
   </si>
   <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si padecen bronquitis crónica en 2012 (Tasa respuesta: 99,29%)</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen bronquitis crónica en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
+    <t>99,29%</t>
   </si>
   <si>
     <t>98,17%</t>
   </si>
   <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen bronquitis crónica en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
+    <t>99,85%</t>
   </si>
   <si>
     <t>1,34%</t>
   </si>
   <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
   </si>
   <si>
     <t>98,66%</t>
   </si>
   <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
   </si>
 </sst>
 </file>
@@ -1335,7 +1311,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7E403BB-9C8D-4E32-A927-34F73FC8CE72}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A1697B5-5FDF-4B0A-AFCD-0C2BAD7CE5F0}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1769,13 +1745,13 @@
         <v>813</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>5</v>
@@ -1784,13 +1760,13 @@
         <v>3292</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -1799,13 +1775,13 @@
         <v>4105</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1820,13 +1796,13 @@
         <v>140702</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>186</v>
@@ -1835,13 +1811,13 @@
         <v>124256</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>397</v>
@@ -1850,13 +1826,13 @@
         <v>264958</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1912,7 +1888,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1924,13 +1900,13 @@
         <v>2026</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -1939,13 +1915,13 @@
         <v>616</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
@@ -1954,13 +1930,13 @@
         <v>2643</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1975,13 +1951,13 @@
         <v>204023</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H14" s="7">
         <v>285</v>
@@ -1990,13 +1966,13 @@
         <v>193481</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M14" s="7">
         <v>592</v>
@@ -2005,13 +1981,13 @@
         <v>397503</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2082,10 +2058,10 @@
         <v>32</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="H16" s="7">
         <v>15</v>
@@ -2094,13 +2070,13 @@
         <v>9584</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="M16" s="7">
         <v>27</v>
@@ -2109,13 +2085,13 @@
         <v>18105</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2133,10 +2109,10 @@
         <v>41</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="H17" s="7">
         <v>1003</v>
@@ -2145,13 +2121,13 @@
         <v>671437</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="M17" s="7">
         <v>2077</v>
@@ -2160,13 +2136,13 @@
         <v>1385616</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2222,7 +2198,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2242,7 +2218,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48BBC995-6E59-444F-BFDC-0299974B605C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{788F7B32-BBB2-4616-A57A-83E2F17CAE8F}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2259,7 +2235,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2366,13 +2342,13 @@
         <v>4130</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H4" s="7">
         <v>8</v>
@@ -2381,13 +2357,13 @@
         <v>4929</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="M4" s="7">
         <v>14</v>
@@ -2396,13 +2372,13 @@
         <v>9059</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2417,13 +2393,13 @@
         <v>140383</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>105</v>
+        <v>61</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H5" s="7">
         <v>210</v>
@@ -2432,13 +2408,13 @@
         <v>141352</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>110</v>
+        <v>24</v>
       </c>
       <c r="M5" s="7">
         <v>409</v>
@@ -2447,13 +2423,13 @@
         <v>281735</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2521,13 +2497,13 @@
         <v>9496</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -2536,13 +2512,13 @@
         <v>3745</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>118</v>
+        <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M7" s="7">
         <v>18</v>
@@ -2551,13 +2527,13 @@
         <v>13241</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>120</v>
+        <v>72</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2572,13 +2548,13 @@
         <v>257605</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H8" s="7">
         <v>332</v>
@@ -2587,13 +2563,13 @@
         <v>230731</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>127</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>128</v>
+        <v>23</v>
       </c>
       <c r="M8" s="7">
         <v>690</v>
@@ -2602,13 +2578,13 @@
         <v>488335</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>129</v>
+        <v>78</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>131</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2676,13 +2652,13 @@
         <v>3310</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -2691,13 +2667,13 @@
         <v>1438</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="M10" s="7">
         <v>7</v>
@@ -2706,13 +2682,13 @@
         <v>4748</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2727,13 +2703,13 @@
         <v>155261</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H11" s="7">
         <v>218</v>
@@ -2742,13 +2718,13 @@
         <v>153396</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M11" s="7">
         <v>441</v>
@@ -2757,13 +2733,13 @@
         <v>308657</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>87</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2819,7 +2795,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2831,13 +2807,13 @@
         <v>951</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -2846,13 +2822,13 @@
         <v>665</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -2861,13 +2837,13 @@
         <v>1617</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>56</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2882,13 +2858,13 @@
         <v>177006</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>152</v>
-      </c>
       <c r="G14" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H14" s="7">
         <v>242</v>
@@ -2897,13 +2873,13 @@
         <v>170672</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>154</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M14" s="7">
         <v>503</v>
@@ -2912,13 +2888,13 @@
         <v>347677</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>64</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2989,10 +2965,10 @@
         <v>156</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>72</v>
+        <v>157</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H16" s="7">
         <v>16</v>
@@ -3001,13 +2977,13 @@
         <v>10777</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M16" s="7">
         <v>41</v>
@@ -3016,10 +2992,10 @@
         <v>28664</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>162</v>
+        <v>38</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>163</v>
@@ -3043,7 +3019,7 @@
         <v>165</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>76</v>
+        <v>166</v>
       </c>
       <c r="H17" s="7">
         <v>1002</v>
@@ -3052,13 +3028,13 @@
         <v>696151</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M17" s="7">
         <v>2043</v>
@@ -3067,13 +3043,13 @@
         <v>1426406</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>171</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3129,7 +3105,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -3149,7 +3125,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A53CAA4A-8448-4B04-B9D4-5D71E8595EE3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{048ED7FE-CABF-4D9A-B923-DAECE9C386E3}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3291,10 +3267,10 @@
         <v>176</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M4" s="7">
         <v>11</v>
@@ -3303,13 +3279,13 @@
         <v>6907</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>147</v>
+        <v>178</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3324,13 +3300,13 @@
         <v>118834</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="H5" s="7">
         <v>208</v>
@@ -3339,13 +3315,13 @@
         <v>130077</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>185</v>
-      </c>
       <c r="L5" s="7" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="M5" s="7">
         <v>387</v>
@@ -3354,13 +3330,13 @@
         <v>248911</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>152</v>
+        <v>185</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>188</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3428,13 +3404,13 @@
         <v>2620</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="H7" s="7">
         <v>8</v>
@@ -3443,13 +3419,13 @@
         <v>5366</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="M7" s="7">
         <v>12</v>
@@ -3458,13 +3434,13 @@
         <v>7986</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>196</v>
+        <v>131</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3479,13 +3455,13 @@
         <v>255441</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="H8" s="7">
         <v>324</v>
@@ -3494,13 +3470,13 @@
         <v>205151</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="M8" s="7">
         <v>700</v>
@@ -3509,13 +3485,13 @@
         <v>460592</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>206</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3583,13 +3559,13 @@
         <v>1363</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3598,13 +3574,13 @@
         <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -3613,13 +3589,13 @@
         <v>1363</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3634,13 +3610,13 @@
         <v>187209</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>272</v>
@@ -3649,10 +3625,10 @@
         <v>188899</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>30</v>
@@ -3664,13 +3640,13 @@
         <v>376108</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3726,7 +3702,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3738,13 +3714,13 @@
         <v>764</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -3753,13 +3729,13 @@
         <v>772</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>156</v>
+        <v>217</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -3768,13 +3744,13 @@
         <v>1536</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3789,13 +3765,13 @@
         <v>173284</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H14" s="7">
         <v>245</v>
@@ -3804,13 +3780,13 @@
         <v>172529</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>164</v>
+        <v>222</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M14" s="7">
         <v>479</v>
@@ -3819,13 +3795,13 @@
         <v>345812</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3893,13 +3869,13 @@
         <v>10077</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>226</v>
+        <v>102</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="H16" s="7">
         <v>12</v>
@@ -3908,13 +3884,13 @@
         <v>7714</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="M16" s="7">
         <v>27</v>
@@ -3923,13 +3899,13 @@
         <v>17791</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3944,13 +3920,13 @@
         <v>734767</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>233</v>
+        <v>110</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="H17" s="7">
         <v>1049</v>
@@ -3959,13 +3935,13 @@
         <v>696657</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="M17" s="7">
         <v>2099</v>
@@ -3974,13 +3950,13 @@
         <v>1431424</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4036,7 +4012,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -4056,7 +4032,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F28AC338-DA6A-409F-96C8-F1DAB683F715}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9565F6F3-621A-4C25-9D7D-B0D0323F88A0}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4073,7 +4049,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4180,13 +4156,13 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>72</v>
+        <v>235</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -4195,13 +4171,13 @@
         <v>1353</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -4210,13 +4186,13 @@
         <v>1353</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4231,10 +4207,10 @@
         <v>58503</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>76</v>
+        <v>240</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>30</v>
@@ -4246,13 +4222,13 @@
         <v>56016</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M5" s="7">
         <v>223</v>
@@ -4261,13 +4237,13 @@
         <v>114518</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4335,13 +4311,13 @@
         <v>4276</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -4350,13 +4326,13 @@
         <v>4575</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>254</v>
+        <v>103</v>
       </c>
       <c r="M7" s="7">
         <v>13</v>
@@ -4365,13 +4341,13 @@
         <v>8851</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>255</v>
+        <v>163</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4386,13 +4362,13 @@
         <v>171023</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="H8" s="7">
         <v>251</v>
@@ -4401,13 +4377,13 @@
         <v>154190</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>262</v>
+        <v>109</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="M8" s="7">
         <v>521</v>
@@ -4416,13 +4392,13 @@
         <v>325212</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>264</v>
+        <v>171</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4490,13 +4466,13 @@
         <v>1498</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -4505,13 +4481,13 @@
         <v>2905</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>150</v>
+        <v>216</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -4520,13 +4496,13 @@
         <v>4403</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>150</v>
+        <v>15</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>120</v>
+        <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4541,13 +4517,13 @@
         <v>200079</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>229</v>
@@ -4556,13 +4532,13 @@
         <v>173208</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>155</v>
+        <v>221</v>
       </c>
       <c r="M11" s="7">
         <v>469</v>
@@ -4571,13 +4547,13 @@
         <v>373287</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>129</v>
+        <v>268</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>155</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4633,7 +4609,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4645,13 +4621,13 @@
         <v>3924</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>146</v>
+        <v>270</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4660,13 +4636,13 @@
         <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>275</v>
+        <v>58</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
@@ -4675,13 +4651,13 @@
         <v>3924</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4696,13 +4672,13 @@
         <v>285500</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>151</v>
+        <v>277</v>
       </c>
       <c r="H14" s="7">
         <v>342</v>
@@ -4711,10 +4687,10 @@
         <v>260633</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>281</v>
+        <v>68</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>30</v>
@@ -4726,13 +4702,13 @@
         <v>546133</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4800,13 +4776,13 @@
         <v>9698</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="H16" s="7">
         <v>13</v>
@@ -4815,13 +4791,13 @@
         <v>8833</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>226</v>
+        <v>102</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="M16" s="7">
         <v>25</v>
@@ -4830,13 +4806,13 @@
         <v>18532</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>226</v>
+        <v>102</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>196</v>
+        <v>90</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>289</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4851,13 +4827,13 @@
         <v>715104</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="H17" s="7">
         <v>929</v>
@@ -4866,13 +4842,13 @@
         <v>644046</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>233</v>
+        <v>110</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="M17" s="7">
         <v>1893</v>
@@ -4881,13 +4857,13 @@
         <v>1359149</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>233</v>
+        <v>110</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>294</v>
+        <v>182</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>206</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4943,7 +4919,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP1002-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP1002-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{718B9184-97B4-4BFD-851A-D5B7BB5B8C3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E90EF794-E7C4-498C-AF21-0191EAE5D2B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3C2B8D8B-A9AF-459C-8B3D-594124EA13C5}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{64E61F47-3F36-41C1-990E-62033474D3BA}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="293">
   <si>
     <t>Menores según si padecen bronquitis crónica en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -74,832 +74,850 @@
     <t>Sí</t>
   </si>
   <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
     <t>2,21%</t>
   </si>
   <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
     <t>0,58%</t>
   </si>
   <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
   </si>
   <si>
     <t>99,42%</t>
   </si>
   <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si padecen bronquitis crónica en 2012 (Tasa respuesta: 99,29%)</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen bronquitis crónica en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen bronquitis crónica en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
   </si>
   <si>
     <t>0,69%</t>
   </si>
   <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
   </si>
   <si>
     <t>99,31%</t>
   </si>
   <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si padecen bronquitis crónica en 2012 (Tasa respuesta: 99,29%)</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen bronquitis crónica en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
   </si>
   <si>
     <t>2,53%</t>
   </si>
   <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
   </si>
   <si>
     <t>97,47%</t>
   </si>
   <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen bronquitis crónica en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
     <t>99,26%</t>
   </si>
   <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
     <t>98,64%</t>
   </si>
   <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
+    <t>97,99%</t>
   </si>
 </sst>
 </file>
@@ -1311,7 +1329,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A1697B5-5FDF-4B0A-AFCD-0C2BAD7CE5F0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79CE9BC0-EC3A-497B-A860-E5ED4C2D58C4}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1429,10 +1447,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>2679</v>
+        <v>1668</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1444,10 +1462,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I4" s="7">
-        <v>1668</v>
+        <v>2679</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1480,10 +1498,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="D5" s="7">
-        <v>118701</v>
+        <v>104503</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1495,10 +1513,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="I5" s="7">
-        <v>104503</v>
+        <v>118701</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1531,25 +1549,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>162</v>
+      </c>
+      <c r="D6" s="7">
+        <v>106171</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>182</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>121380</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>162</v>
-      </c>
-      <c r="I6" s="7">
-        <v>106171</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1584,10 +1602,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D7" s="7">
-        <v>3002</v>
+        <v>4008</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1599,10 +1617,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I7" s="7">
-        <v>4008</v>
+        <v>3002</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1635,10 +1653,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="D8" s="7">
-        <v>250754</v>
+        <v>249197</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1650,10 +1668,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="I8" s="7">
-        <v>249197</v>
+        <v>250754</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1686,25 +1704,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>379</v>
+      </c>
+      <c r="D9" s="7">
+        <v>253205</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>382</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>253756</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>379</v>
-      </c>
-      <c r="I9" s="7">
-        <v>253205</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1739,10 +1757,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D10" s="7">
-        <v>813</v>
+        <v>3292</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1754,10 +1772,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>3292</v>
+        <v>813</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1790,10 +1808,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>211</v>
+        <v>186</v>
       </c>
       <c r="D11" s="7">
-        <v>140702</v>
+        <v>124256</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1805,10 +1823,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="I11" s="7">
-        <v>124256</v>
+        <v>140702</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1841,25 +1859,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>191</v>
+      </c>
+      <c r="D12" s="7">
+        <v>127548</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>212</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>141515</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>191</v>
-      </c>
-      <c r="I12" s="7">
-        <v>127548</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1894,31 +1912,31 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>2026</v>
+        <v>616</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>3</v>
+      </c>
+      <c r="I13" s="7">
+        <v>2026</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="H13" s="7">
-        <v>1</v>
-      </c>
-      <c r="I13" s="7">
-        <v>616</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>71</v>
-      </c>
       <c r="K13" s="7" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>73</v>
@@ -1945,10 +1963,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="D14" s="7">
-        <v>204023</v>
+        <v>193481</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>77</v>
@@ -1957,13 +1975,13 @@
         <v>78</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="H14" s="7">
-        <v>285</v>
+        <v>307</v>
       </c>
       <c r="I14" s="7">
-        <v>193481</v>
+        <v>204023</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>79</v>
@@ -1972,7 +1990,7 @@
         <v>80</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="M14" s="7">
         <v>592</v>
@@ -1996,25 +2014,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>286</v>
+      </c>
+      <c r="D15" s="7">
+        <v>194097</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>310</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>206049</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>286</v>
-      </c>
-      <c r="I15" s="7">
-        <v>194097</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2049,28 +2067,28 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>15</v>
+      </c>
+      <c r="D16" s="7">
+        <v>9584</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H16" s="7">
         <v>12</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>8521</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="H16" s="7">
-        <v>15</v>
-      </c>
-      <c r="I16" s="7">
-        <v>9584</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>87</v>
@@ -2100,28 +2118,28 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>1003</v>
+      </c>
+      <c r="D17" s="7">
+        <v>671437</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="H17" s="7">
         <v>1074</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>714179</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1003</v>
-      </c>
-      <c r="I17" s="7">
-        <v>671437</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>95</v>
@@ -2151,25 +2169,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>1018</v>
+      </c>
+      <c r="D18" s="7">
+        <v>681021</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>1086</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>722700</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I18" s="7">
-        <v>681021</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2218,7 +2236,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{788F7B32-BBB2-4616-A57A-83E2F17CAE8F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A74FEAD3-5B2F-47D6-B2F6-248D603CA86B}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2336,34 +2354,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>8</v>
+      </c>
+      <c r="D4" s="7">
+        <v>4929</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H4" s="7">
         <v>6</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>4130</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="H4" s="7">
-        <v>8</v>
-      </c>
-      <c r="I4" s="7">
-        <v>4929</v>
-      </c>
       <c r="J4" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M4" s="7">
         <v>14</v>
@@ -2372,13 +2390,13 @@
         <v>9059</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2387,34 +2405,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>210</v>
+      </c>
+      <c r="D5" s="7">
+        <v>141352</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H5" s="7">
         <v>199</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>140383</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="H5" s="7">
-        <v>210</v>
-      </c>
-      <c r="I5" s="7">
-        <v>141352</v>
-      </c>
       <c r="J5" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>24</v>
+        <v>116</v>
       </c>
       <c r="M5" s="7">
         <v>409</v>
@@ -2423,13 +2441,13 @@
         <v>281735</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2438,25 +2456,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>218</v>
+      </c>
+      <c r="D6" s="7">
+        <v>146281</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>205</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>144513</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>218</v>
-      </c>
-      <c r="I6" s="7">
-        <v>146281</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2491,34 +2509,34 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>5</v>
+      </c>
+      <c r="D7" s="7">
+        <v>3745</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="H7" s="7">
         <v>13</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>9496</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H7" s="7">
-        <v>5</v>
-      </c>
-      <c r="I7" s="7">
-        <v>3745</v>
-      </c>
       <c r="J7" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>12</v>
+        <v>123</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="M7" s="7">
         <v>18</v>
@@ -2527,13 +2545,13 @@
         <v>13241</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>72</v>
+        <v>125</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>14</v>
+        <v>126</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2542,34 +2560,34 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>332</v>
+      </c>
+      <c r="D8" s="7">
+        <v>230731</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="H8" s="7">
         <v>358</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>257605</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="H8" s="7">
-        <v>332</v>
-      </c>
-      <c r="I8" s="7">
-        <v>230731</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>23</v>
+        <v>132</v>
       </c>
       <c r="M8" s="7">
         <v>690</v>
@@ -2578,13 +2596,13 @@
         <v>488335</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>24</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2593,25 +2611,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>337</v>
+      </c>
+      <c r="D9" s="7">
+        <v>234476</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>371</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>267101</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>337</v>
-      </c>
-      <c r="I9" s="7">
-        <v>234476</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2646,34 +2664,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>2</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1438</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="H10" s="7">
         <v>5</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>3310</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="H10" s="7">
-        <v>2</v>
-      </c>
-      <c r="I10" s="7">
-        <v>1438</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="M10" s="7">
         <v>7</v>
@@ -2682,13 +2700,13 @@
         <v>4748</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2697,34 +2715,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>218</v>
+      </c>
+      <c r="D11" s="7">
+        <v>153396</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H11" s="7">
         <v>223</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>155261</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="H11" s="7">
-        <v>218</v>
-      </c>
-      <c r="I11" s="7">
-        <v>153396</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="M11" s="7">
         <v>441</v>
@@ -2733,13 +2751,13 @@
         <v>308657</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2748,25 +2766,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>220</v>
+      </c>
+      <c r="D12" s="7">
+        <v>154834</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>228</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>158571</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>220</v>
-      </c>
-      <c r="I12" s="7">
-        <v>154834</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2804,31 +2822,31 @@
         <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>951</v>
+        <v>665</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>665</v>
+        <v>951</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -2837,13 +2855,13 @@
         <v>1617</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2852,34 +2870,34 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>242</v>
+      </c>
+      <c r="D14" s="7">
+        <v>170672</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H14" s="7">
         <v>261</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>177006</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H14" s="7">
-        <v>242</v>
-      </c>
-      <c r="I14" s="7">
-        <v>170672</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M14" s="7">
         <v>503</v>
@@ -2888,13 +2906,13 @@
         <v>347677</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2903,25 +2921,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>243</v>
+      </c>
+      <c r="D15" s="7">
+        <v>171337</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>262</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>177957</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>243</v>
-      </c>
-      <c r="I15" s="7">
-        <v>171337</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2956,34 +2974,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>16</v>
+      </c>
+      <c r="D16" s="7">
+        <v>10777</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="H16" s="7">
         <v>25</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>17887</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="H16" s="7">
-        <v>16</v>
-      </c>
-      <c r="I16" s="7">
-        <v>10777</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>160</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="M16" s="7">
         <v>41</v>
@@ -2992,13 +3010,13 @@
         <v>28664</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>38</v>
+        <v>165</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3007,34 +3025,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>1002</v>
+      </c>
+      <c r="D17" s="7">
+        <v>696151</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H17" s="7">
         <v>1041</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>730255</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1002</v>
-      </c>
-      <c r="I17" s="7">
-        <v>696151</v>
-      </c>
       <c r="J17" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M17" s="7">
         <v>2043</v>
@@ -3043,13 +3061,13 @@
         <v>1426406</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>47</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3058,25 +3076,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>1018</v>
+      </c>
+      <c r="D18" s="7">
+        <v>706928</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>1066</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>748142</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I18" s="7">
-        <v>706928</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3125,7 +3143,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{048ED7FE-CABF-4D9A-B923-DAECE9C386E3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C575FB39-85EA-4D57-B9B3-FA629D8A0D49}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3142,7 +3160,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3243,34 +3261,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>3</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1577</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="H4" s="7">
         <v>8</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>5330</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="H4" s="7">
-        <v>3</v>
-      </c>
-      <c r="I4" s="7">
-        <v>1577</v>
-      </c>
       <c r="J4" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>33</v>
+        <v>179</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="M4" s="7">
         <v>11</v>
@@ -3279,13 +3297,13 @@
         <v>6907</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>102</v>
+        <v>182</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3294,34 +3312,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>208</v>
+      </c>
+      <c r="D5" s="7">
+        <v>130077</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="H5" s="7">
         <v>179</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>118834</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="H5" s="7">
-        <v>208</v>
-      </c>
-      <c r="I5" s="7">
-        <v>130077</v>
-      </c>
       <c r="J5" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>43</v>
+        <v>189</v>
       </c>
       <c r="M5" s="7">
         <v>387</v>
@@ -3330,13 +3348,13 @@
         <v>248911</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>110</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3345,25 +3363,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>211</v>
+      </c>
+      <c r="D6" s="7">
+        <v>131654</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>187</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>124164</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>211</v>
-      </c>
-      <c r="I6" s="7">
-        <v>131654</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3398,34 +3416,34 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>8</v>
+      </c>
+      <c r="D7" s="7">
+        <v>5366</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="H7" s="7">
         <v>4</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>2620</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="H7" s="7">
-        <v>8</v>
-      </c>
-      <c r="I7" s="7">
-        <v>5366</v>
-      </c>
       <c r="J7" s="7" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="M7" s="7">
         <v>12</v>
@@ -3434,13 +3452,13 @@
         <v>7986</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>131</v>
+        <v>199</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3449,34 +3467,34 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>324</v>
+      </c>
+      <c r="D8" s="7">
+        <v>205151</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="H8" s="7">
         <v>376</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>255441</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="H8" s="7">
-        <v>324</v>
-      </c>
-      <c r="I8" s="7">
-        <v>205151</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="M8" s="7">
         <v>700</v>
@@ -3485,13 +3503,13 @@
         <v>460592</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>139</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3500,25 +3518,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>332</v>
+      </c>
+      <c r="D9" s="7">
+        <v>210517</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>380</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>258061</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>332</v>
-      </c>
-      <c r="I9" s="7">
-        <v>210517</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3553,34 +3571,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>0</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="7">
         <v>2</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>1363</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>210</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>205</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>206</v>
+        <v>161</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -3589,13 +3607,13 @@
         <v>1363</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3604,34 +3622,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>272</v>
+      </c>
+      <c r="D11" s="7">
+        <v>188899</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="7">
         <v>261</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>187209</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H11" s="7">
-        <v>272</v>
-      </c>
-      <c r="I11" s="7">
-        <v>188899</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>62</v>
+        <v>213</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>211</v>
+        <v>168</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>533</v>
@@ -3640,13 +3658,13 @@
         <v>376108</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3655,25 +3673,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>272</v>
+      </c>
+      <c r="D12" s="7">
+        <v>188899</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>263</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>188572</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>272</v>
-      </c>
-      <c r="I12" s="7">
-        <v>188899</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3711,31 +3729,31 @@
         <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>764</v>
+        <v>772</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>215</v>
+        <v>123</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>772</v>
+        <v>764</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -3744,13 +3762,13 @@
         <v>1536</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3759,25 +3777,25 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>245</v>
+      </c>
+      <c r="D14" s="7">
+        <v>172529</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H14" s="7">
         <v>234</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>173284</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H14" s="7">
-        <v>245</v>
-      </c>
-      <c r="I14" s="7">
-        <v>172529</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>221</v>
@@ -3786,7 +3804,7 @@
         <v>222</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M14" s="7">
         <v>479</v>
@@ -3795,13 +3813,13 @@
         <v>345812</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>223</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3810,25 +3828,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>246</v>
+      </c>
+      <c r="D15" s="7">
+        <v>173301</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>235</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>174048</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>246</v>
-      </c>
-      <c r="I15" s="7">
-        <v>173301</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3863,34 +3881,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>12</v>
+      </c>
+      <c r="D16" s="7">
+        <v>7714</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="7">
+      <c r="G16" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="H16" s="7">
+        <v>15</v>
+      </c>
+      <c r="I16" s="7">
         <v>10077</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="H16" s="7">
-        <v>12</v>
-      </c>
-      <c r="I16" s="7">
-        <v>7714</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>226</v>
+        <v>18</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>73</v>
+        <v>227</v>
       </c>
       <c r="M16" s="7">
         <v>27</v>
@@ -3899,13 +3917,13 @@
         <v>17791</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>90</v>
+        <v>229</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>228</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3914,34 +3932,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>1049</v>
+      </c>
+      <c r="D17" s="7">
+        <v>696657</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" s="7">
         <v>1050</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>734767</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1049</v>
-      </c>
-      <c r="I17" s="7">
-        <v>696657</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>80</v>
+        <v>233</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>231</v>
+        <v>29</v>
       </c>
       <c r="M17" s="7">
         <v>2099</v>
@@ -3950,13 +3968,13 @@
         <v>1431424</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>233</v>
+        <v>159</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>99</v>
+        <v>235</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3965,25 +3983,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>1061</v>
+      </c>
+      <c r="D18" s="7">
+        <v>704371</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>1065</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>744844</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1061</v>
-      </c>
-      <c r="I18" s="7">
-        <v>704371</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4032,7 +4050,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9565F6F3-621A-4C25-9D7D-B0D0323F88A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95014A2A-FD24-40E9-871A-B953672D5A4C}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4049,7 +4067,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4150,46 +4168,46 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>2</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1332</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="H4" s="7">
         <v>0</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>0</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="H4" s="7">
-        <v>2</v>
-      </c>
-      <c r="I4" s="7">
-        <v>1353</v>
-      </c>
       <c r="J4" s="7" t="s">
-        <v>236</v>
+        <v>55</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>52</v>
+        <v>209</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>237</v>
+        <v>76</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
       </c>
       <c r="N4" s="7">
-        <v>1353</v>
+        <v>1332</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>238</v>
+        <v>193</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>239</v>
@@ -4201,49 +4219,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>107</v>
+      </c>
+      <c r="D5" s="7">
+        <v>56179</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H5" s="7">
         <v>116</v>
       </c>
-      <c r="D5" s="7">
-        <v>58503</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="7">
-        <v>107</v>
-      </c>
       <c r="I5" s="7">
-        <v>56016</v>
+        <v>61444</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>241</v>
+        <v>65</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>242</v>
+        <v>82</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="M5" s="7">
         <v>223</v>
       </c>
       <c r="N5" s="7">
-        <v>114518</v>
+        <v>117623</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>243</v>
+        <v>202</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4252,25 +4270,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>109</v>
+      </c>
+      <c r="D6" s="7">
+        <v>57511</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>116</v>
       </c>
-      <c r="D6" s="7">
-        <v>58503</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>109</v>
-      </c>
       <c r="I6" s="7">
-        <v>57369</v>
+        <v>61444</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4285,7 +4303,7 @@
         <v>225</v>
       </c>
       <c r="N6" s="7">
-        <v>115871</v>
+        <v>118955</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4305,49 +4323,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>7</v>
+      </c>
+      <c r="D7" s="7">
+        <v>4569</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="H7" s="7">
         <v>6</v>
       </c>
-      <c r="D7" s="7">
-        <v>4276</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="F7" s="7" t="s">
+      <c r="I7" s="7">
+        <v>4947</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="H7" s="7">
-        <v>7</v>
-      </c>
-      <c r="I7" s="7">
-        <v>4575</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M7" s="7">
         <v>13</v>
       </c>
       <c r="N7" s="7">
-        <v>8851</v>
+        <v>9516</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>163</v>
+        <v>249</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4356,31 +4374,31 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>251</v>
+      </c>
+      <c r="D8" s="7">
+        <v>154730</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="H8" s="7">
         <v>270</v>
       </c>
-      <c r="D8" s="7">
-        <v>171023</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="G8" s="7" t="s">
+      <c r="I8" s="7">
+        <v>177607</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="H8" s="7">
-        <v>251</v>
-      </c>
-      <c r="I8" s="7">
-        <v>154190</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>256</v>
@@ -4389,16 +4407,16 @@
         <v>521</v>
       </c>
       <c r="N8" s="7">
-        <v>325212</v>
+        <v>332337</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>171</v>
+        <v>257</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>258</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4407,25 +4425,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>258</v>
+      </c>
+      <c r="D9" s="7">
+        <v>159299</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>276</v>
       </c>
-      <c r="D9" s="7">
-        <v>175299</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>258</v>
-      </c>
       <c r="I9" s="7">
-        <v>158765</v>
+        <v>182554</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4440,7 +4458,7 @@
         <v>534</v>
       </c>
       <c r="N9" s="7">
-        <v>334063</v>
+        <v>341853</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4460,31 +4478,31 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" s="7">
-        <v>1498</v>
+        <v>2797</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>259</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>52</v>
+        <v>153</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>260</v>
       </c>
       <c r="H10" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I10" s="7">
-        <v>2905</v>
+        <v>1674</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>261</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>216</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>262</v>
@@ -4493,16 +4511,16 @@
         <v>6</v>
       </c>
       <c r="N10" s="7">
-        <v>4403</v>
+        <v>4472</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>238</v>
+        <v>263</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4511,49 +4529,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>229</v>
+      </c>
+      <c r="D11" s="7">
+        <v>170275</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="H11" s="7">
         <v>240</v>
       </c>
-      <c r="D11" s="7">
-        <v>200079</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H11" s="7">
-        <v>229</v>
-      </c>
       <c r="I11" s="7">
-        <v>173208</v>
+        <v>209813</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>221</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>469</v>
       </c>
       <c r="N11" s="7">
-        <v>373287</v>
+        <v>380088</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>243</v>
+        <v>269</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4562,25 +4580,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>233</v>
+      </c>
+      <c r="D12" s="7">
+        <v>173072</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>242</v>
       </c>
-      <c r="D12" s="7">
-        <v>201577</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>233</v>
-      </c>
       <c r="I12" s="7">
-        <v>176113</v>
+        <v>211487</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4595,7 +4613,7 @@
         <v>475</v>
       </c>
       <c r="N12" s="7">
-        <v>377690</v>
+        <v>384560</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4615,49 +4633,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>0</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="7">
         <v>4</v>
       </c>
-      <c r="D13" s="7">
-        <v>3924</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="G13" s="7" t="s">
+      <c r="I13" s="7">
+        <v>4034</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>52</v>
-      </c>
       <c r="K13" s="7" t="s">
-        <v>205</v>
+        <v>36</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>58</v>
+        <v>272</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
       </c>
       <c r="N13" s="7">
-        <v>3924</v>
+        <v>4034</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>274</v>
+        <v>198</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4666,49 +4684,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>342</v>
+      </c>
+      <c r="D14" s="7">
+        <v>275458</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="7">
         <v>338</v>
       </c>
-      <c r="D14" s="7">
-        <v>285500</v>
-      </c>
-      <c r="E14" s="7" t="s">
+      <c r="I14" s="7">
+        <v>301449</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="H14" s="7">
-        <v>342</v>
-      </c>
-      <c r="I14" s="7">
-        <v>260633</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>68</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="M14" s="7">
         <v>680</v>
       </c>
       <c r="N14" s="7">
-        <v>546133</v>
+        <v>576906</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4720,7 +4738,7 @@
         <v>342</v>
       </c>
       <c r="D15" s="7">
-        <v>289424</v>
+        <v>275458</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4735,7 +4753,7 @@
         <v>342</v>
       </c>
       <c r="I15" s="7">
-        <v>260633</v>
+        <v>305483</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4750,7 +4768,7 @@
         <v>684</v>
       </c>
       <c r="N15" s="7">
-        <v>550057</v>
+        <v>580940</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4770,31 +4788,31 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>13</v>
+      </c>
+      <c r="D16" s="7">
+        <v>8698</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="H16" s="7">
         <v>12</v>
       </c>
-      <c r="D16" s="7">
-        <v>9698</v>
-      </c>
-      <c r="E16" s="7" t="s">
+      <c r="I16" s="7">
+        <v>10656</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="G16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="H16" s="7">
-        <v>13</v>
-      </c>
-      <c r="I16" s="7">
-        <v>8833</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>283</v>
@@ -4803,16 +4821,16 @@
         <v>25</v>
       </c>
       <c r="N16" s="7">
-        <v>18532</v>
+        <v>19354</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>102</v>
+        <v>284</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>90</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>174</v>
+        <v>285</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4821,46 +4839,46 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>929</v>
+      </c>
+      <c r="D17" s="7">
+        <v>656642</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H17" s="7">
         <v>964</v>
       </c>
-      <c r="D17" s="7">
-        <v>715104</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="H17" s="7">
-        <v>929</v>
-      </c>
       <c r="I17" s="7">
-        <v>644046</v>
+        <v>750313</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>110</v>
+        <v>288</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="M17" s="7">
         <v>1893</v>
       </c>
       <c r="N17" s="7">
-        <v>1359149</v>
+        <v>1406955</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>110</v>
+        <v>291</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>182</v>
+        <v>292</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>99</v>
@@ -4872,25 +4890,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>942</v>
+      </c>
+      <c r="D18" s="7">
+        <v>665340</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>976</v>
       </c>
-      <c r="D18" s="7">
-        <v>724802</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>942</v>
-      </c>
       <c r="I18" s="7">
-        <v>652879</v>
+        <v>760969</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4905,7 +4923,7 @@
         <v>1918</v>
       </c>
       <c r="N18" s="7">
-        <v>1377681</v>
+        <v>1426309</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
